--- a/biology/Botanique/Camissonia_tanacetifolia/Camissonia_tanacetifolia.xlsx
+++ b/biology/Botanique/Camissonia_tanacetifolia/Camissonia_tanacetifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camissonia tanacetifolia est une espèce végétale de la famille des Onagraceae.
 Synonyme :
@@ -515,12 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée basse, sans tige feuillée, mesure entre 2,5 et 10 cm de hauteur. Les feuilles, disposées en rosette à la base de la plante, mesurent de 5 à 20 cm de long ; elles sont globalement de forme lancéolée, mais profondément découpées et lobées[1]. La racine, ligneuse et pivotante, produit des ramifications souterraines qui, se propageant à l'horizontale, sont capables de produire des rejets un peu plus loin[1].
-Appareil reproducteur
-La floraison a lieu de juin à août.
-L'inflorescence est une fleur isolée, jaune, située en haut d'une tige florale. Chaque fleur mesure 2,5 à 3,8 cm de diamètre. La corolle est composée de 4 pétales larges et présente 8 étamines. Le tube situé entre l'ovaire et les pétales mesure entre 2,5 et 8,8 cm de long[1].
-Le fruit est une capsule coriace d'environ 2 cm de long, quadrangulaire, avec les bordures des côtés amincies en courtes ailettes.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée basse, sans tige feuillée, mesure entre 2,5 et 10 cm de hauteur. Les feuilles, disposées en rosette à la base de la plante, mesurent de 5 à 20 cm de long ; elles sont globalement de forme lancéolée, mais profondément découpées et lobées. La racine, ligneuse et pivotante, produit des ramifications souterraines qui, se propageant à l'horizontale, sont capables de produire des rejets un peu plus loin.
 </t>
         </is>
       </c>
@@ -546,13 +559,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante vit dans l'ouest des États-Unis, de l'État de Washington jusqu'à la Californie. La limite orientale va de l'Idaho au Montana.
-Elle pousse sur des sols se desséchant en été.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de juin à août.
+L'inflorescence est une fleur isolée, jaune, située en haut d'une tige florale. Chaque fleur mesure 2,5 à 3,8 cm de diamètre. La corolle est composée de 4 pétales larges et présente 8 étamines. Le tube situé entre l'ovaire et les pétales mesure entre 2,5 et 8,8 cm de long.
+Le fruit est une capsule coriace d'environ 2 cm de long, quadrangulaire, avec les bordures des côtés amincies en courtes ailettes.
 </t>
         </is>
       </c>
@@ -578,10 +598,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante vit dans l'ouest des États-Unis, de l'État de Washington jusqu'à la Californie. La limite orientale va de l'Idaho au Montana.
+Elle pousse sur des sols se desséchant en été.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Camissonia_tanacetifolia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camissonia_tanacetifolia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
